--- a/Serien/Excel_Uebungsserien/Exercise Series 2.xlsx
+++ b/Serien/Excel_Uebungsserien/Exercise Series 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Kessler\UNIBE\FS22\Programmieren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batsc\Documents\GitHub\Programmieren-fuer-Naturwissenschaften\Serien\Excel_Uebungsserien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B0A22-1CBA-4AF4-810E-0DD8A86F8AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7B3AB-7C2B-4783-B78B-E6C24E485DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{FF20E6E3-F86F-45C6-BC9C-0779EDB79C99}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{FF20E6E3-F86F-45C6-BC9C-0779EDB79C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -224,7 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -583,12 +582,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -602,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -617,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -632,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -647,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -662,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -677,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -692,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>0</v>
       </c>
@@ -707,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>0</v>
       </c>
@@ -722,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -741,21 +740,21 @@
   <dimension ref="C3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
@@ -769,7 +768,7 @@
         <v>42665.34375</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
@@ -784,7 +783,7 @@
         <v>42658.6875</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
@@ -800,7 +799,7 @@
         <v>6.65625</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
@@ -816,7 +815,7 @@
         <v>9585</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
@@ -832,7 +831,7 @@
         <v>9585</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
@@ -840,7 +839,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -849,7 +848,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
@@ -858,7 +857,7 @@
         <v>JA</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
@@ -877,34 +876,34 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44988</v>
-      </c>
-      <c r="C1" s="16">
+        <v>45213</v>
+      </c>
+      <c r="C1" s="1">
         <f ca="1">COUNTIF(F4:F9,"JA")</f>
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -925,7 +924,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -947,7 +946,7 @@
         <v>NEIN</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -960,14 +959,14 @@
       <c r="D5" s="7"/>
       <c r="E5">
         <f t="shared" ref="E5:E9" ca="1" si="0">IF(D5=0,TODAY()-C5,D5-C5)</f>
-        <v>931</v>
+        <v>1156</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" ref="F5:F9" ca="1" si="1">IF(AND(D5=0,TODAY()-D5&gt;60),"JA","NEIN")</f>
         <v>JA</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -989,7 +988,7 @@
         <v>NEIN</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>NEIN</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1024,14 +1023,14 @@
       <c r="D8" s="7"/>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>973</v>
+        <v>1198</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>JA</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1044,7 +1043,7 @@
       <c r="D9" s="7"/>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>1135</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
